--- a/Documentacion/Test.xlsx
+++ b/Documentacion/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejo\Documents\proyectofinal-dh-backend\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BDEA28-FAC6-4330-8E8A-73460F83784C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E21F2A-631E-407B-9E85-0B285778A228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="1335" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -345,9 +345,6 @@
     <t>Envio de dinero</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Registro de usuario previamente registrado</t>
   </si>
   <si>
@@ -370,6 +367,9 @@
   </si>
   <si>
     <t>Visualizar detalle de una transaccion (manual)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pass </t>
   </si>
 </sst>
 </file>
@@ -1218,7 +1218,7 @@
         <v>28</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>13</v>
@@ -1227,7 +1227,7 @@
         <v>7</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>27</v>
@@ -1460,15 +1460,24 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="G7:G11"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="H7:H11"/>
+    <mergeCell ref="F7:F11"/>
+    <mergeCell ref="H12:H21"/>
+    <mergeCell ref="G12:G21"/>
+    <mergeCell ref="F12:F21"/>
+    <mergeCell ref="C12:C21"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B12:B21"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="A42:A44"/>
@@ -1485,24 +1494,15 @@
     <mergeCell ref="C22:C31"/>
     <mergeCell ref="F22:F31"/>
     <mergeCell ref="G22:G31"/>
-    <mergeCell ref="C12:C21"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B12:B21"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="G7:G11"/>
-    <mergeCell ref="H2:H6"/>
-    <mergeCell ref="H7:H11"/>
-    <mergeCell ref="F7:F11"/>
-    <mergeCell ref="H12:H21"/>
-    <mergeCell ref="G12:G21"/>
-    <mergeCell ref="F12:F21"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="C45:C47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1571,13 +1571,13 @@
         <v>55</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1601,7 +1601,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -1613,7 +1613,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -1625,7 +1625,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -1637,7 +1637,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -1649,7 +1649,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -1671,7 +1671,7 @@
         <v>55</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>27</v>
@@ -1689,7 +1689,7 @@
         <v>60</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -1808,6 +1808,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="G2:G8"/>
+    <mergeCell ref="H2:H8"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="H9:H11"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="H15:H17"/>
     <mergeCell ref="F15:F17"/>
@@ -1824,12 +1830,6 @@
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="G9:G11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="G2:G8"/>
-    <mergeCell ref="H2:H8"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="H9:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>81</v>
@@ -2062,6 +2062,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B2:B4"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="G5:G9"/>
@@ -2074,12 +2080,6 @@
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="H10:H12"/>
     <mergeCell ref="C10:C12"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="B2:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2150,7 +2150,7 @@
         <v>103</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>26</v>
